--- a/datos/inflacion.xlsx
+++ b/datos/inflacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AB33CA-EE88-4FF3-B70D-23F3F491BF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3474D-EAB3-4D91-9C4B-BE81ACBD8AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A540D522-25A2-45F3-9001-3D43DE8A3DE0}"/>
   </bookViews>
@@ -37,8 +37,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -104,17 +105,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,1463 +434,1466 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49932F80-33A8-4527-83E8-771C9982653B}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="5">
+        <v>42766</v>
+      </c>
+      <c r="B2" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>42767</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="5">
+        <v>42794</v>
+      </c>
+      <c r="B3" s="3">
         <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42795</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5">
+        <v>42825</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42826</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="5">
+        <v>42855</v>
+      </c>
+      <c r="B5" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>42856</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="5">
+        <v>42886</v>
+      </c>
+      <c r="B6" s="3">
         <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B7" s="3">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>42917</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5">
+        <v>42947</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>42948</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5">
+        <v>42978</v>
+      </c>
+      <c r="B9" s="3">
         <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42979</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5">
+        <v>43008</v>
+      </c>
+      <c r="B10" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>43009</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5">
+        <v>43039</v>
+      </c>
+      <c r="B11" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>43040</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="5">
+        <v>43069</v>
+      </c>
+      <c r="B12" s="3">
         <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43070</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="5">
+        <v>43100</v>
+      </c>
+      <c r="B13" s="3">
         <v>3.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="5">
+        <v>43131</v>
+      </c>
+      <c r="B14" s="3">
         <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="5">
+        <v>43159</v>
+      </c>
+      <c r="B15" s="3">
         <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43160</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="5">
+        <v>43190</v>
+      </c>
+      <c r="B16" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="5">
+        <v>43220</v>
+      </c>
+      <c r="B17" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43221</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="5">
+        <v>43251</v>
+      </c>
+      <c r="B18" s="3">
         <v>2.1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>43252</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="5">
+        <v>43281</v>
+      </c>
+      <c r="B19" s="3">
         <v>3.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43282</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5">
+        <v>43312</v>
+      </c>
+      <c r="B20" s="3">
         <v>3.1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>43313</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="5">
+        <v>43343</v>
+      </c>
+      <c r="B21" s="3">
         <v>3.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>43344</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="5">
+        <v>43373</v>
+      </c>
+      <c r="B22" s="3">
         <v>6.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>43374</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5">
+        <v>43404</v>
+      </c>
+      <c r="B23" s="3">
         <v>5.4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>43405</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" s="5">
+        <v>43434</v>
+      </c>
+      <c r="B24" s="3">
         <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>43435</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="5">
+        <v>43465</v>
+      </c>
+      <c r="B25" s="3">
         <v>2.6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>43466</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="5">
+        <v>43496</v>
+      </c>
+      <c r="B26" s="3">
         <v>2.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>43497</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="5">
+        <v>43524</v>
+      </c>
+      <c r="B27" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>43525</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" s="5">
+        <v>43555</v>
+      </c>
+      <c r="B28" s="3">
         <v>4.7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="5">
+        <v>43585</v>
+      </c>
+      <c r="B29" s="3">
         <v>3.4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="5">
+        <v>43616</v>
+      </c>
+      <c r="B30" s="3">
         <v>3.1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>43617</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="5">
+        <v>43646</v>
+      </c>
+      <c r="B31" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43647</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="5">
+        <v>43677</v>
+      </c>
+      <c r="B32" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>43678</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="A33" s="5">
+        <v>43708</v>
+      </c>
+      <c r="B33" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43709</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="A34" s="5">
+        <v>43738</v>
+      </c>
+      <c r="B34" s="3">
         <v>5.9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="5">
+        <v>43769</v>
+      </c>
+      <c r="B35" s="3">
         <v>3.3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43770</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="5">
+        <v>43799</v>
+      </c>
+      <c r="B36" s="3">
         <v>4.3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="5">
+        <v>43830</v>
+      </c>
+      <c r="B37" s="3">
         <v>3.7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="5">
+        <v>43861</v>
+      </c>
+      <c r="B38" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="5">
+        <v>43890</v>
+      </c>
+      <c r="B39" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B40" s="3">
         <v>3.3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B41" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="5">
+        <v>43982</v>
+      </c>
+      <c r="B42" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>43983</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="A43" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B43" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="5">
+        <v>44043</v>
+      </c>
+      <c r="B44" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="5">
+        <v>44074</v>
+      </c>
+      <c r="B45" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B46" s="5">
+      <c r="A46" s="5">
+        <v>44104</v>
+      </c>
+      <c r="B46" s="3">
         <v>2.8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B47" s="5">
+      <c r="A47" s="5">
+        <v>44135</v>
+      </c>
+      <c r="B47" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" s="5">
+        <v>44165</v>
+      </c>
+      <c r="B48" s="3">
         <v>3.2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B49" s="5">
+      <c r="A49" s="5">
+        <v>44196</v>
+      </c>
+      <c r="B49" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="A50" s="5">
+        <v>44227</v>
+      </c>
+      <c r="B50" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B51" s="5">
+      <c r="A51" s="5">
+        <v>44255</v>
+      </c>
+      <c r="B51" s="3">
         <v>3.6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="A52" s="5">
+        <v>44286</v>
+      </c>
+      <c r="B52" s="3">
         <v>4.8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B53" s="5">
+      <c r="A53" s="5">
+        <v>44316</v>
+      </c>
+      <c r="B53" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B54" s="5">
+      <c r="A54" s="5">
+        <v>44347</v>
+      </c>
+      <c r="B54" s="3">
         <v>3.3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44348</v>
-      </c>
-      <c r="B55" s="5">
+      <c r="A55" s="5">
+        <v>44377</v>
+      </c>
+      <c r="B55" s="3">
         <v>3.2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B56" s="5">
+      <c r="A56" s="5">
+        <v>44408</v>
+      </c>
+      <c r="B56" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>44409</v>
-      </c>
-      <c r="B57" s="5">
+      <c r="A57" s="5">
+        <v>44439</v>
+      </c>
+      <c r="B57" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>44440</v>
-      </c>
-      <c r="B58" s="5">
+      <c r="A58" s="5">
+        <v>44469</v>
+      </c>
+      <c r="B58" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>44470</v>
-      </c>
-      <c r="B59" s="5">
+      <c r="A59" s="5">
+        <v>44500</v>
+      </c>
+      <c r="B59" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>44501</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="5">
+        <v>44530</v>
+      </c>
+      <c r="B60" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>44531</v>
-      </c>
-      <c r="B61" s="5">
+      <c r="A61" s="5">
+        <v>44561</v>
+      </c>
+      <c r="B61" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B62" s="5">
+      <c r="A62" s="5">
+        <v>44592</v>
+      </c>
+      <c r="B62" s="3">
         <v>3.9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B63" s="5">
+      <c r="A63" s="5">
+        <v>44620</v>
+      </c>
+      <c r="B63" s="3">
         <v>4.7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>44621</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="A64" s="5">
+        <v>44651</v>
+      </c>
+      <c r="B64" s="3">
         <v>6.7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B65" s="5">
+      <c r="A65" s="5">
+        <v>44681</v>
+      </c>
+      <c r="B65" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>44682</v>
-      </c>
-      <c r="B66" s="5">
+      <c r="A66" s="5">
+        <v>44712</v>
+      </c>
+      <c r="B66" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>44713</v>
-      </c>
-      <c r="B67" s="5">
+      <c r="A67" s="5">
+        <v>44742</v>
+      </c>
+      <c r="B67" s="3">
         <v>5.3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B68" s="5">
+      <c r="A68" s="5">
+        <v>44773</v>
+      </c>
+      <c r="B68" s="3">
         <v>7.4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>44774</v>
-      </c>
-      <c r="B69" s="5">
+      <c r="A69" s="5">
+        <v>44804</v>
+      </c>
+      <c r="B69" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>44805</v>
-      </c>
-      <c r="B70" s="5">
+      <c r="A70" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B70" s="3">
         <v>6.2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>44835</v>
-      </c>
-      <c r="B71" s="5">
+      <c r="A71" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B71" s="3">
         <v>6.3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>44866</v>
-      </c>
-      <c r="B72" s="5">
+      <c r="A72" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B72" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>44896</v>
-      </c>
-      <c r="B73" s="5">
+      <c r="A73" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B73" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>44927</v>
-      </c>
-      <c r="B74" s="5">
+      <c r="A74" s="5">
+        <v>44957</v>
+      </c>
+      <c r="B74" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B75" s="5">
+      <c r="A75" s="5">
+        <v>44985</v>
+      </c>
+      <c r="B75" s="3">
         <v>6.6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>44986</v>
-      </c>
-      <c r="B76" s="5">
+      <c r="A76" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B76" s="3">
         <v>7.7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B77" s="5">
+      <c r="A77" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B77" s="3">
         <v>8.4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>45047</v>
-      </c>
-      <c r="B78" s="5">
+      <c r="A78" s="5">
+        <v>45077</v>
+      </c>
+      <c r="B78" s="3">
         <v>7.8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>45078</v>
-      </c>
-      <c r="B79" s="5">
+      <c r="A79" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B79" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>45108</v>
-      </c>
-      <c r="B80" s="5">
+      <c r="A80" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B80" s="3">
         <v>6.3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>45139</v>
-      </c>
-      <c r="B81" s="5">
+      <c r="A81" s="5">
+        <v>45169</v>
+      </c>
+      <c r="B81" s="3">
         <v>12.4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>45170</v>
-      </c>
-      <c r="B82" s="5">
+      <c r="A82" s="5">
+        <v>45199</v>
+      </c>
+      <c r="B82" s="3">
         <v>12.7</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>45200</v>
-      </c>
-      <c r="B83" s="5">
+      <c r="A83" s="5">
+        <v>45230</v>
+      </c>
+      <c r="B83" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>45231</v>
-      </c>
-      <c r="B84" s="5">
+      <c r="A84" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B84" s="3">
         <v>12.8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>45261</v>
-      </c>
-      <c r="B85" s="5">
+      <c r="A85" s="5">
+        <v>45291</v>
+      </c>
+      <c r="B85" s="3">
         <v>25.5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B86" s="5">
+      <c r="A86" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B86" s="3">
         <v>20.6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B87" s="5">
+      <c r="A87" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B87" s="3">
         <v>13.2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>45352</v>
-      </c>
-      <c r="B88" s="5">
+      <c r="A88" s="5">
+        <v>45382</v>
+      </c>
+      <c r="B88" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B89" s="5">
+      <c r="A89" s="5">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="3">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B90" s="5">
+      <c r="A90" s="5">
+        <v>45443</v>
+      </c>
+      <c r="B90" s="3">
         <v>4.2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B91" s="5">
+      <c r="A91" s="5">
+        <v>45473</v>
+      </c>
+      <c r="B91" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B92" s="5">
+      <c r="A92" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B92" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B93" s="5">
+      <c r="A93" s="5">
+        <v>45535</v>
+      </c>
+      <c r="B93" s="3">
         <v>4.2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B94" s="5">
+      <c r="A94" s="5">
+        <v>45565</v>
+      </c>
+      <c r="B94" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B95" s="5">
+      <c r="A95" s="5">
+        <v>45596</v>
+      </c>
+      <c r="B95" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B96" s="5">
+      <c r="A96" s="5">
+        <v>45626</v>
+      </c>
+      <c r="B96" s="3">
         <v>2.4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B97" s="5">
+      <c r="A97" s="5">
+        <v>45657</v>
+      </c>
+      <c r="B97" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B98" s="5">
+      <c r="A98" s="5">
+        <v>45688</v>
+      </c>
+      <c r="B98" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>45689</v>
-      </c>
-      <c r="B99" s="5">
+      <c r="A99" s="5">
+        <v>45716</v>
+      </c>
+      <c r="B99" s="3">
         <v>2.4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B100" s="5">
+      <c r="A100" s="5">
+        <v>45747</v>
+      </c>
+      <c r="B100" s="3">
         <v>3.7</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B101" s="5">
+      <c r="A101" s="5">
+        <v>45777</v>
+      </c>
+      <c r="B101" s="3">
         <v>2.8</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B102" s="5">
+      <c r="A102" s="5">
+        <v>45808</v>
+      </c>
+      <c r="B102" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>45809</v>
-      </c>
-      <c r="B103" s="5">
+      <c r="A103" s="5">
+        <v>45838</v>
+      </c>
+      <c r="B103" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>45839</v>
-      </c>
-      <c r="B104" s="5">
+      <c r="A104" s="5">
+        <v>45869</v>
+      </c>
+      <c r="B104" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>45870</v>
-      </c>
-      <c r="B105" s="5">
+      <c r="A105" s="5">
+        <v>45900</v>
+      </c>
+      <c r="B105" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B106" s="5">
+      <c r="A106" s="5">
+        <v>45930</v>
+      </c>
+      <c r="B106" s="3">
         <v>2.1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B107" s="5">
+      <c r="A107" s="5">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="1"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="1"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="1"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="1"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="1"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="1"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="1"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="1"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="1"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="1"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="1"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="1"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="1"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="1"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="1"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="1"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="1"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="1"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="1"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="1"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="1"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="1"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="1"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
+      <c r="A233" s="6"/>
+      <c r="B233" s="1"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="1"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="1"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="1"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="1"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="1"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="1"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="1"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="1"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
+      <c r="A245" s="6"/>
+      <c r="B245" s="1"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
+      <c r="A246" s="6"/>
+      <c r="B246" s="1"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="1"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
+      <c r="A249" s="6"/>
+      <c r="B249" s="1"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="6"/>
+      <c r="B250" s="1"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="1"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="1"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="1"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="6"/>
+      <c r="B254" s="1"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="1"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
